--- a/a1/ass1-data/part3/PerceptronResults.xlsx
+++ b/a1/ass1-data/part3/PerceptronResults.xlsx
@@ -545,7 +545,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="201" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1116,10 +1116,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1407,7 +1407,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
